--- a/data/trans_bre/P1001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>123,83%</t>
+          <t>54,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>121,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>148,96%</t>
+          <t>116,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>112,07%</t>
+          <t>93,92%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 8,53</t>
+          <t>0,04; 4,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 14,88</t>
+          <t>5,04; 11,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 16,53</t>
+          <t>3,57; 9,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,1</t>
+          <t>2,77; 7,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 1290,04</t>
+          <t>-2,03; 152,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 359,26</t>
+          <t>59,58; 212,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 621,69</t>
+          <t>44,2; 210,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 455,8</t>
+          <t>38,93; 176,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>128,03%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>110,06%</t>
+          <t>143,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>169,71%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,75</t>
+          <t>-0,74; 4,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 12,4</t>
+          <t>4,49; 10,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 10,0</t>
+          <t>4,65; 9,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,63</t>
+          <t>4,65; 9,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 132,29</t>
+          <t>-9,96; 79,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,68; 249,87</t>
+          <t>44,01; 147,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,5; 216,04</t>
+          <t>75,64; 238,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,52; 181,77</t>
+          <t>83,76; 429,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,27 +835,27 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>142,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>143,31%</t>
+          <t>120,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>121,37%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,02</t>
+          <t>2,69; 9,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 10,52</t>
+          <t>4,35; 10,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,61</t>
+          <t>4,17; 10,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,38</t>
+          <t>-5,14; 4,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 79,92</t>
+          <t>29,34; 156,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,01; 147,86</t>
+          <t>59,03; 266,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,64; 238,0</t>
+          <t>57,21; 223,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>61,64; 212,92</t>
+          <t>-48,39; 55,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>142,44%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>120,07%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>107,97%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,2</t>
+          <t>1,58; 6,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,94</t>
+          <t>4,06; 9,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,4</t>
+          <t>1,29; 6,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,35</t>
+          <t>3,13; 9,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 156,63</t>
+          <t>20,2; 116,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,03; 266,69</t>
+          <t>46,15; 155,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,21; 223,78</t>
+          <t>12,79; 99,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 73,44</t>
+          <t>45,72; 197,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>55,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>106,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>100,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>126,89%</t>
+          <t>87,59%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,43</t>
+          <t>2,08; 4,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,69</t>
+          <t>6,11; 8,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,47</t>
+          <t>4,64; 7,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,15</t>
+          <t>3,01; 6,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,2; 116,05</t>
+          <t>31,78; 87,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,15; 155,71</t>
+          <t>78,56; 141,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 99,63</t>
+          <t>69,69; 139,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,03; 217,12</t>
+          <t>48,23; 139,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,41</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>55,67%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>106,66%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>100,97%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>87,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 4,7</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 8,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 7,54</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 6,82</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>31,78; 87,28</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>78,56; 141,47</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>69,69; 139,29</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>55,22; 122,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P1001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,85</t>
+          <t>0,23; 4,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 11,63</t>
+          <t>4,92; 11,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,78</t>
+          <t>3,72; 10,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,66</t>
+          <t>2,56; 7,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 152,15</t>
+          <t>3,72; 143,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,58; 212,1</t>
+          <t>58,43; 217,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,2; 210,64</t>
+          <t>47,32; 216,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,93; 176,41</t>
+          <t>35,2; 178,78</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,02</t>
+          <t>-1,0; 3,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 10,52</t>
+          <t>4,6; 10,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,61</t>
+          <t>4,73; 9,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,77</t>
+          <t>4,88; 10,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 79,92</t>
+          <t>-13,45; 81,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,01; 147,86</t>
+          <t>48,18; 152,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,64; 238,0</t>
+          <t>75,24; 241,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,76; 429,1</t>
+          <t>86,76; 419,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,2</t>
+          <t>2,69; 9,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,94</t>
+          <t>4,66; 10,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,4</t>
+          <t>4,11; 10,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 4,33</t>
+          <t>-6,18; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,34; 156,63</t>
+          <t>28,32; 169,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,03; 266,69</t>
+          <t>65,66; 255,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>57,21; 223,78</t>
+          <t>52,01; 213,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 55,29</t>
+          <t>-49,56; 56,48</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,43</t>
+          <t>1,64; 6,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,69</t>
+          <t>4,23; 9,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,47</t>
+          <t>1,19; 6,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,0</t>
+          <t>3,38; 8,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 116,05</t>
+          <t>21,31; 121,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,15; 155,71</t>
+          <t>48,43; 163,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 99,63</t>
+          <t>12,55; 101,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,72; 197,11</t>
+          <t>45,96; 184,41</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>1,98; 4,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,98</t>
+          <t>5,9; 9,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,54</t>
+          <t>4,74; 7,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,75</t>
+          <t>2,87; 6,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,78; 87,28</t>
+          <t>29,8; 85,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,56; 141,47</t>
+          <t>75,82; 139,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,69; 139,29</t>
+          <t>71,81; 138,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,23; 139,58</t>
+          <t>49,35; 139,21</t>
         </is>
       </c>
     </row>
